--- a/data/output/FV2304_FV2210/UTILMD/11157.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11157.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="373">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="373">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1265,6 +1265,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U233" totalsRowShown="0">
+  <autoFilter ref="A1:U233"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,7 +1584,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12236,5 +12269,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11157.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11157.xlsx
@@ -2366,7 +2366,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4856,7 +4856,7 @@
         <v>345</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5010,7 +5010,7 @@
         <v>346</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5216,7 +5216,7 @@
         <v>345</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5780,7 +5780,7 @@
         <v>345</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6068,7 +6068,7 @@
         <v>349</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6538,7 +6538,7 @@
         <v>353</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6784,7 +6784,7 @@
         <v>355</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7272,7 +7272,7 @@
         <v>357</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7460,7 +7460,7 @@
         <v>357</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7648,7 +7648,7 @@
         <v>358</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7936,7 +7936,7 @@
         <v>359</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8220,7 +8220,7 @@
         <v>360</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8566,7 +8566,7 @@
         <v>362</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9002,7 +9002,7 @@
         <v>363</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9208,7 +9208,7 @@
         <v>364</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9498,7 +9498,7 @@
         <v>365</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9758,7 +9758,7 @@
         <v>366</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10058,7 +10058,7 @@
         <v>367</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11038,7 +11038,7 @@
         <v>369</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11722,7 +11722,7 @@
         <v>372</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -13028,7 +13028,7 @@
         <v>373</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -13314,7 +13314,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N231" s="2"/>
